--- a/docs/29_10_2018/deep_hidden.xlsx
+++ b/docs/29_10_2018/deep_hidden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pp_1_\DOCUME~1\MobaXterm\slash\RemoteFiles\4133860_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pp_1_\DOCUME~1\MobaXterm\slash\RemoteFiles\393392_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632F525-0A06-43AF-8521-1A3AEDC43302}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F5929-A744-4B11-AAF4-0C2BC0897F17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="2" activeTab="10" xr2:uid="{8B9D2998-25B0-4D05-9D9A-F0C6F1B712C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{8B9D2998-25B0-4D05-9D9A-F0C6F1B712C7}"/>
   </bookViews>
   <sheets>
     <sheet name="MEJORES" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -930,9 +930,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1094,15 +1091,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,12 +1211,44 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1252,23 +1272,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -24354,12 +24357,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1D642C7D-C00C-4C3B-A6F3-3AA2BE5EC6F3}" name="Tabla5" displayName="Tabla5" ref="A1:L22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1D642C7D-C00C-4C3B-A6F3-3AA2BE5EC6F3}" name="Tabla5" displayName="Tabla5" ref="A1:L22" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:L22" xr:uid="{DC9ADE1C-0134-4D5F-8584-F09E82ED86DE}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{8B22197E-833D-4094-A9D4-3506128C6306}" name="EPOCH"/>
     <tableColumn id="2" xr3:uid="{F6A72230-B27D-4AA0-A1E5-C9DEEA784FC4}" name="EMB"/>
-    <tableColumn id="3" xr3:uid="{5A412F67-BAB9-447A-AEB6-EA030EAD5FC0}" name="LR" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5A412F67-BAB9-447A-AEB6-EA030EAD5FC0}" name="LR" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{12BBF187-2BA5-4EAB-B74A-D28693269591}" name="LOSS_TRAIN"/>
     <tableColumn id="5" xr3:uid="{37B28512-845B-45A5-ABC7-7F03FD874A29}" name="LOSS_DEV"/>
     <tableColumn id="6" xr3:uid="{9C3A416A-2E7B-4478-96BF-8BBDE1541D14}" name="TOP_1"/>
@@ -24842,8 +24845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B214BD9-2DDC-4B84-BACB-3AF7E6B39881}">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24862,7 +24865,7 @@
       <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="92" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="30" t="s">
@@ -24897,16 +24900,16 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>32</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>32</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -24930,22 +24933,22 @@
       <c r="M4" s="23">
         <v>8553</v>
       </c>
-      <c r="N4" s="56">
+      <c r="N4" s="55">
         <v>20.914969791899701</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O4" s="64">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="94"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="6">
         <v>256</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <v>256</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -24969,22 +24972,22 @@
       <c r="M5" s="26">
         <v>8458</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="57">
         <v>21.458641008428401</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="65">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="8">
         <v>512</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="54">
         <v>512</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -24993,25 +24996,25 @@
       <c r="G6" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <v>1142</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="50">
         <v>3899</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <v>5877</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="50">
         <v>7281</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="51">
         <v>8330</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="58">
         <v>22.139777728052501</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="66">
         <v>13</v>
       </c>
     </row>
@@ -25022,10 +25025,10 @@
       <c r="C7" s="8">
         <v>512</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="54">
         <v>512</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -25034,39 +25037,39 @@
       <c r="G7" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="118">
         <v>1178</v>
       </c>
-      <c r="J7" s="123">
+      <c r="J7" s="119">
         <v>3944</v>
       </c>
-      <c r="K7" s="123">
+      <c r="K7" s="119">
         <v>5975</v>
       </c>
-      <c r="L7" s="123">
+      <c r="L7" s="119">
         <v>7368</v>
       </c>
-      <c r="M7" s="124">
+      <c r="M7" s="120">
         <v>8409</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="119">
         <v>22.1529797866786</v>
       </c>
-      <c r="O7" s="124">
+      <c r="O7" s="120">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="132" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>128</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -25075,37 +25078,37 @@
       <c r="G8" s="5">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>1125</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>3751</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>5813</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="74">
         <v>7298</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="75">
         <v>8430</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="76">
         <v>21.6524203774147</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="77">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="94"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="6">
         <v>256</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>128</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -25114,158 +25117,158 @@
       <c r="G9" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="78">
         <v>1130</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="79">
         <v>3917</v>
       </c>
-      <c r="K9" s="80">
+      <c r="K9" s="79">
         <v>5963</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="79">
         <v>7465</v>
       </c>
-      <c r="M9" s="81">
+      <c r="M9" s="80">
         <v>8578</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N9" s="81">
         <v>21.081300813008099</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="82">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="106">
+      <c r="B10" s="134"/>
+      <c r="C10" s="102">
         <v>512</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="104">
         <v>128</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="83">
         <v>1207</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="84">
         <v>3934</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="84">
         <v>5973</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="84">
         <v>7455</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="85">
         <v>8569</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="86">
         <v>21.134929514432699</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="87">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="110">
         <v>512</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="111">
         <v>512</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="111">
         <v>128</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="112">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="113">
         <v>1199</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="114">
         <v>3939</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="114">
         <v>5981</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="114">
         <v>7459</v>
       </c>
-      <c r="M11" s="121">
+      <c r="M11" s="117">
         <v>8514</v>
       </c>
-      <c r="N11" s="119">
+      <c r="N11" s="115">
         <v>21.574699783694999</v>
       </c>
-      <c r="O11" s="120">
+      <c r="O11" s="116">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="105">
         <v>32</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="107">
         <v>256</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="109">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="59">
         <v>1128</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="60">
         <v>3831</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="60">
         <v>5929</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="60">
         <v>7293</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="56">
         <v>8412</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="61">
         <v>21.548146490639201</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="64">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="6">
         <v>256</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="53">
         <v>256</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -25274,37 +25277,37 @@
       <c r="G13" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>1103</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="40">
         <v>3789</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>5903</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="40">
         <v>7328</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="41">
         <v>8458</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="62">
         <v>21.458641008428401</v>
       </c>
-      <c r="O13" s="66">
+      <c r="O13" s="65">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="8">
         <v>512</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="54">
         <v>256</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -25313,83 +25316,127 @@
       <c r="G14" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="42">
         <v>1141</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <v>3889</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="43">
         <v>5955</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="43">
         <v>7487</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <v>8591</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="67">
         <v>21.274856418288898</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="68">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="100"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="96"/>
+      <c r="I16" s="135">
+        <f>I10/13407</f>
+        <v>9.0027597523681654E-2</v>
+      </c>
+      <c r="J16" s="135">
+        <f t="shared" ref="J16:O16" si="0">J10/13407</f>
+        <v>0.29342880584769149</v>
+      </c>
+      <c r="K16" s="135">
+        <f t="shared" si="0"/>
+        <v>0.44551353770418439</v>
+      </c>
+      <c r="L16" s="135">
+        <f t="shared" si="0"/>
+        <v>0.55605280823450431</v>
+      </c>
+      <c r="M16" s="135">
+        <f t="shared" si="0"/>
+        <v>0.63914373088685017</v>
+      </c>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="96"/>
+      <c r="I17" s="97">
+        <v>1170</v>
+      </c>
+      <c r="J17" s="97">
+        <v>4815</v>
+      </c>
+      <c r="K17" s="97">
+        <v>7527</v>
+      </c>
+      <c r="L17" s="97">
+        <v>9293</v>
+      </c>
+      <c r="M17" s="97">
+        <v>11042</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="136">
+        <f>I17/23538</f>
+        <v>4.9706856997196021E-2</v>
+      </c>
+      <c r="J18" s="136">
+        <f t="shared" ref="J18:M18" si="1">J17/23538</f>
+        <v>0.20456283456538363</v>
+      </c>
+      <c r="K18" s="136">
+        <f t="shared" si="1"/>
+        <v>0.31978078001529442</v>
+      </c>
+      <c r="L18" s="136">
+        <f t="shared" si="1"/>
+        <v>0.39480839493584841</v>
+      </c>
+      <c r="M18" s="136">
+        <f t="shared" si="1"/>
+        <v>0.46911377347268246</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
@@ -25401,7 +25448,7 @@
       <c r="C21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="92" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -25436,16 +25483,16 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="4">
         <v>32</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>32</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -25454,37 +25501,37 @@
       <c r="G22" s="5">
         <v>1E-4</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>974</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>3588</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="37">
         <v>5817</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>7420</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="38">
         <v>8710</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="61">
         <v>19.867681062131702</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="64">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="6">
         <v>256</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <v>256</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -25493,37 +25540,37 @@
       <c r="G23" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>1005</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="40">
         <v>3610</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <v>5830</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="40">
         <v>7512</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <v>8718</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="62">
         <v>19.462668755127901</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O23" s="65">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="95"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="8">
         <v>512</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="54">
         <v>512</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -25532,39 +25579,39 @@
       <c r="G24" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <v>999</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="47">
         <v>3722</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="47">
         <v>5909</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="47">
         <v>7515</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="48">
         <v>8827</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="63">
         <v>19.318639516670299</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="66">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="8">
         <v>512</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="54">
         <v>512</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -25573,39 +25620,39 @@
       <c r="G25" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I25" s="132">
+      <c r="I25" s="128">
         <v>1062</v>
       </c>
-      <c r="J25" s="133">
+      <c r="J25" s="129">
         <v>3630</v>
       </c>
-      <c r="K25" s="133">
+      <c r="K25" s="129">
         <v>5898</v>
       </c>
-      <c r="L25" s="133">
+      <c r="L25" s="129">
         <v>7496</v>
       </c>
-      <c r="M25" s="134">
+      <c r="M25" s="130">
         <v>8819</v>
       </c>
-      <c r="N25" s="132">
+      <c r="N25" s="128">
         <v>19.365107779518102</v>
       </c>
-      <c r="O25" s="134">
+      <c r="O25" s="130">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="132" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>32</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="52">
         <v>128</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -25614,37 +25661,37 @@
       <c r="G26" s="5">
         <v>1E-4</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="121">
         <v>995</v>
       </c>
-      <c r="J26" s="126">
+      <c r="J26" s="122">
         <v>3597</v>
       </c>
-      <c r="K26" s="126">
+      <c r="K26" s="122">
         <v>5787</v>
       </c>
-      <c r="L26" s="126">
+      <c r="L26" s="122">
         <v>7355</v>
       </c>
-      <c r="M26" s="127">
+      <c r="M26" s="123">
         <v>8664</v>
       </c>
-      <c r="N26" s="128">
+      <c r="N26" s="124">
         <v>20.1576042365928</v>
       </c>
-      <c r="O26" s="129">
+      <c r="O26" s="125">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="6">
         <v>256</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="53">
         <v>128</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -25653,37 +25700,37 @@
       <c r="G27" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I27" s="79">
+      <c r="I27" s="78">
         <v>1031</v>
       </c>
-      <c r="J27" s="80">
+      <c r="J27" s="79">
         <v>3722</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="79">
         <v>5900</v>
       </c>
-      <c r="L27" s="80">
+      <c r="L27" s="79">
         <v>7487</v>
       </c>
-      <c r="M27" s="81">
+      <c r="M27" s="80">
         <v>8810</v>
       </c>
-      <c r="N27" s="82">
+      <c r="N27" s="81">
         <v>19.3810695905124</v>
       </c>
-      <c r="O27" s="83">
+      <c r="O27" s="82">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="95"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="8">
         <v>512</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="54">
         <v>128</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -25692,80 +25739,80 @@
       <c r="G28" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I28" s="84">
+      <c r="I28" s="83">
         <v>1010</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="84">
         <v>3710</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="84">
         <v>5901</v>
       </c>
-      <c r="L28" s="85">
+      <c r="L28" s="84">
         <v>7528</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="85">
         <v>8778</v>
       </c>
-      <c r="N28" s="87">
+      <c r="N28" s="86">
         <v>19.393898709629202</v>
       </c>
-      <c r="O28" s="88">
+      <c r="O28" s="87">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="114">
+      <c r="C29" s="110">
         <v>512</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="111">
         <v>512</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="111">
         <v>128</v>
       </c>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="116">
+      <c r="G29" s="112">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I29" s="117">
+      <c r="I29" s="113">
         <v>1076</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="114">
         <v>3694</v>
       </c>
-      <c r="K29" s="118">
+      <c r="K29" s="114">
         <v>5918</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="114">
         <v>7499</v>
       </c>
-      <c r="M29" s="121">
+      <c r="M29" s="117">
         <v>8809</v>
       </c>
-      <c r="N29" s="135">
+      <c r="N29" s="131">
         <v>19.5032445737301</v>
       </c>
-      <c r="O29" s="120">
+      <c r="O29" s="116">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="132" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="4">
         <v>32</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <v>256</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -25774,37 +25821,37 @@
       <c r="G30" s="5">
         <v>1E-4</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>1019</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="37">
         <v>3647</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="37">
         <v>5805</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="37">
         <v>7384</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="38">
         <v>8646</v>
       </c>
-      <c r="N30" s="130">
+      <c r="N30" s="126">
         <v>20.182889535317301</v>
       </c>
-      <c r="O30" s="131">
+      <c r="O30" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="6">
         <v>256</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="53">
         <v>256</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -25813,37 +25860,37 @@
       <c r="G31" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <v>1005</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="40">
         <v>3610</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="40">
         <v>5830</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="40">
         <v>7512</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="41">
         <v>8718</v>
       </c>
-      <c r="N31" s="58">
+      <c r="N31" s="57">
         <v>19.462668755127901</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="65">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="95"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="8">
         <v>512</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="54">
         <v>256</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -25852,30 +25899,30 @@
       <c r="G32" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="42">
         <v>1027</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="43">
         <v>3657</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="43">
         <v>5891</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="43">
         <v>7496</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="44">
         <v>8793</v>
       </c>
-      <c r="N32" s="73">
+      <c r="N32" s="72">
         <v>19.371671514880202</v>
       </c>
-      <c r="O32" s="69">
+      <c r="O32" s="68">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="36"/>
+      <c r="J35" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26150,7 +26197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N17">
+  <conditionalFormatting sqref="N12:N15 N17">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -26162,7 +26209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O17">
+  <conditionalFormatting sqref="O12:O15 O17">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -26174,7 +26221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I17">
+  <conditionalFormatting sqref="I12:I15 N16:O16">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -26186,7 +26233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J17">
+  <conditionalFormatting sqref="J12:J15">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -26198,7 +26245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K17">
+  <conditionalFormatting sqref="K12:K15">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -26210,7 +26257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:O17">
+  <conditionalFormatting sqref="M12:O15 N17:O17">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -26222,7 +26269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L17">
+  <conditionalFormatting sqref="L12:L15">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -26234,7 +26281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M17">
+  <conditionalFormatting sqref="M12:M15">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -26342,7 +26389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6 I12:I17">
+  <conditionalFormatting sqref="I4:I6 I12:I15 N16:O16">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -26354,7 +26401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6 J12:J17">
+  <conditionalFormatting sqref="J4:J6 J12:J15">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -26366,7 +26413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6 K12:K17">
+  <conditionalFormatting sqref="K4:K6 K12:K15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -26378,7 +26425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6 L12:L17">
+  <conditionalFormatting sqref="L4:L6 L12:L15">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -26390,7 +26437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6 M12:M17">
+  <conditionalFormatting sqref="M4:M6 M12:M15">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -26402,7 +26449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N6 N12:N17">
+  <conditionalFormatting sqref="N4:N6 N12:N15 N17">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -26414,7 +26461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O6 O12:O17">
+  <conditionalFormatting sqref="O4:O6 O12:O15 O17">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -26870,7 +26917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6 J8:J10 J12:J17">
+  <conditionalFormatting sqref="J4:J6 J8:J10 J12:J15">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -26882,7 +26929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6 I8:I10 I12:I17">
+  <conditionalFormatting sqref="I4:I6 I8:I10 I12:I15 N16:O16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -26894,7 +26941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6 K8:K10 K12:K17">
+  <conditionalFormatting sqref="K4:K6 K8:K10 K12:K15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -26906,7 +26953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6 L8:L10 L12:L17">
+  <conditionalFormatting sqref="L4:L6 L8:L10 L12:L15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -26918,7 +26965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6 M8:M10 M12:M17">
+  <conditionalFormatting sqref="M4:M6 M8:M10 M12:M15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -26930,7 +26977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N6 N8:N10 N12:N17">
+  <conditionalFormatting sqref="N4:N6 N8:N10 N12:N15 N17">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -27039,40 +27086,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -28418,7 +28465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FE3FD1-5CBE-4261-A187-8ECE43FCC7CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -28431,40 +28478,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -28712,25 +28759,25 @@
       <c r="E8">
         <v>0.49264562000000001</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="89">
         <v>1199</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="89">
         <v>3939</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="89">
         <v>5981</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="89">
         <v>7459</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="89">
         <v>8514</v>
       </c>
-      <c r="K8" s="89">
+      <c r="K8" s="88">
         <v>21.574699783694999</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="88">
         <v>13</v>
       </c>
     </row>
@@ -29112,25 +29159,25 @@
       <c r="E18">
         <v>0.44703345999999999</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="88">
         <v>1076</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="88">
         <v>3694</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="88">
         <v>5918</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="88">
         <v>7499</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="88">
         <v>8809</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="89">
         <v>19.5032445737301</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="89">
         <v>13</v>
       </c>
       <c r="O18">
@@ -30234,19 +30281,19 @@
       <c r="E24">
         <v>0.4507369</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="45">
         <v>974</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="45">
         <v>3588</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="45">
         <v>5817</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="45">
         <v>7420</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="45">
         <v>8710</v>
       </c>
       <c r="K24" s="16">
@@ -34369,43 +34416,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -34551,25 +34598,25 @@
       <c r="F5">
         <v>0.51014113000000005</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="89">
         <v>1178</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="89">
         <v>3944</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>5975</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="89">
         <v>7368</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="89">
         <v>8409</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="88">
         <v>22.1529797866786</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="88">
         <v>13</v>
       </c>
     </row>
@@ -36355,25 +36402,25 @@
       <c r="F49">
         <v>0.45515016000000003</v>
       </c>
-      <c r="G49" s="89">
+      <c r="G49" s="88">
         <v>1062</v>
       </c>
-      <c r="H49" s="89">
+      <c r="H49" s="88">
         <v>3630</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="88">
         <v>5898</v>
       </c>
-      <c r="J49" s="89">
+      <c r="J49" s="88">
         <v>7496</v>
       </c>
-      <c r="K49" s="89">
+      <c r="K49" s="88">
         <v>8819</v>
       </c>
-      <c r="L49" s="90">
+      <c r="L49" s="89">
         <v>19.365107779518102</v>
       </c>
-      <c r="M49" s="90">
+      <c r="M49" s="89">
         <v>13</v>
       </c>
     </row>
@@ -36530,40 +36577,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -37394,40 +37441,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -38637,40 +38684,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -39576,40 +39623,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
